--- a/transactions.xlsx
+++ b/transactions.xlsx
@@ -388,7 +388,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
